--- a/biology/Médecine/Low_Impact_Aerobic/Low_Impact_Aerobic.xlsx
+++ b/biology/Médecine/Low_Impact_Aerobic/Low_Impact_Aerobic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Low Impact Aerobic (LIA) est une discipline sportive issue du fitness. Elle est née dans les années 1960 aux États-Unis, grâce à Kenneth H. Cooper (en) qui s'intéressait grandement aux avantages et aux effets de l'aérobic. Le LIA fait donc partie intégrante du fitness. Il permet de pratiquer une activité physique sans pour autant traumatiser les articulations et les muscles avec des mouvements de danses chorégraphiés. 
 </t>
@@ -511,9 +523,11 @@
           <t>Définition élargie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le LIA est une pratique sportive dérivée du step. Cette discipline consiste à travailler son aérobie tout en faisant des mouvements dansés et des exercices de step sans step. C'est une discipline cardio dont le but est de brûler des calories et de se défouler. De plus, la danse permet une diminution du stress et un bien-être mental[1].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le LIA est une pratique sportive dérivée du step. Cette discipline consiste à travailler son aérobie tout en faisant des mouvements dansés et des exercices de step sans step. C'est une discipline cardio dont le but est de brûler des calories et de se défouler. De plus, la danse permet une diminution du stress et un bien-être mental.  
 Un cours de LIA se décline en plusieurs chorégraphies rythmées par de la musique. La spécificité de cette discipline est d'avoir toujours un pied au sol, les sauts et les acrobaties ne sont pas de mises dans le LIA. 
 La séance se déroule en plusieurs étapes. Pour commencer, le coach procède à un échauffement  avec des étirements en allant vers des mouvements de plus en plus cardio afin de préparer son corps. Ensuite, le cours de LIA consiste à apprendre et reproduire une chorégraphie inventée par le coach. Cette chorégraphie se compose de mouvements de danses (mambo, pas de tchatcha...) combinés à des mouvements de fitness (montée de genoux, pas chassés, le V-step...). Il n'existe pas une seule chorégraphie de LIA, mais il est aisé de retrouver d'une chorégraphie à l'autre, les mêmes mouvements qui forment les bases du LIA. 
 Enfin, le LIA est une discipline sportive qui peut correspondre à un large public, hommes et femmes de tous âges qui aiment se dépenser tout en s'amusant. 
@@ -545,13 +559,15 @@
           <t>Objectifs du LIA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le LIA a pour objectif de pratiquer une activité physique tout en s'amusant. Il permet de muscler le corps dans son ensemble sans le traumatiser. Les différentes raisons de pratiquer le LIA sont :
 de s'amuser
 de faire du sport
 de danser
-Le LIA permet donc au corps de brûler des calories mais également de bouger son corps au travers de chorégraphies dansées. Le LIA est une bonne alternative pour les sportifs qui souhaitent travailler leur cardio ainsi que leur coordination tout en musclant leur corps de façon harmonieuse[2].  A la fin d'un cours de LIA, les bienfaits sur le corps sont nombreux[3]:
+Le LIA permet donc au corps de brûler des calories mais également de bouger son corps au travers de chorégraphies dansées. Le LIA est une bonne alternative pour les sportifs qui souhaitent travailler leur cardio ainsi que leur coordination tout en musclant leur corps de façon harmonieuse.  A la fin d'un cours de LIA, les bienfaits sur le corps sont nombreux:
 amélioration de sa capacité cardio-vasculaire
 amélioration de sa coordination
 diminution du stress
